--- a/output/0/tRNA-Met-CAT-3-2.xlsx
+++ b/output/0/tRNA-Met-CAT-3-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>chr6</t>
   </si>
@@ -61,30 +61,6 @@
   <si>
     <t>Sequence is not unique in genome</t>
   </si>
-  <si>
-    <t>28921095</t>
-  </si>
-  <si>
-    <t>28921118</t>
-  </si>
-  <si>
-    <t>28921098</t>
-  </si>
-  <si>
-    <t>GTCTGCCTCCTTAGCGCAGT</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
 </sst>
 </file>
 
@@ -128,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -193,65 +169,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
